--- a/data/trans_orig/PCS12_SP_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>138474</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>117667</v>
+        <v>118618</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>158652</v>
+        <v>158584</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2922776565379353</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2483602864712861</v>
+        <v>0.2503680202961543</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3348669701621726</v>
+        <v>0.3347233518796053</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -765,19 +765,19 @@
         <v>77492</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>63667</v>
+        <v>62809</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>93760</v>
+        <v>92749</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2526816263600848</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2075995039033827</v>
+        <v>0.2048034882139362</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3057243325116404</v>
+        <v>0.3024279993635439</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>203</v>
@@ -786,19 +786,19 @@
         <v>215967</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>192137</v>
+        <v>192767</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>241954</v>
+        <v>244300</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.276718402762696</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2461851178271444</v>
+        <v>0.246992649289524</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.310015784402584</v>
+        <v>0.3130212472733755</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>143214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>125207</v>
+        <v>124574</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>163291</v>
+        <v>163048</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3022812631909693</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2642748443430656</v>
+        <v>0.2629388849260458</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3446583565226128</v>
+        <v>0.3441450383496488</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>76</v>
@@ -836,19 +836,19 @@
         <v>80381</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>64488</v>
+        <v>64158</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>95189</v>
+        <v>95225</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2621001306618937</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.21027834392459</v>
+        <v>0.2092029064768774</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3103857208767513</v>
+        <v>0.3105041478635382</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>217</v>
@@ -857,7 +857,7 @@
         <v>223595</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>202140</v>
+        <v>198496</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>250399</v>
@@ -866,10 +866,10 @@
         <v>0.2864920935396609</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2590019356451975</v>
+        <v>0.2543327964130856</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3208358355651978</v>
+        <v>0.3208358773737297</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>135173</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>115676</v>
+        <v>115537</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>155544</v>
+        <v>156101</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2853108081643669</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2441568268267696</v>
+        <v>0.2438650940260405</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3283067356351697</v>
+        <v>0.3294834449002086</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>93</v>
@@ -907,19 +907,19 @@
         <v>93194</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>78854</v>
+        <v>78294</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>111251</v>
+        <v>109233</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3038809250414239</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2571219803258181</v>
+        <v>0.2552941370097363</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3627580760398071</v>
+        <v>0.3561794717633195</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>224</v>
@@ -928,19 +928,19 @@
         <v>228368</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>202347</v>
+        <v>204033</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>252050</v>
+        <v>253975</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2926079326444773</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2592678912617028</v>
+        <v>0.2614273889765164</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3229516291814036</v>
+        <v>0.325418326766665</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>56915</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43248</v>
+        <v>42108</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70966</v>
+        <v>71281</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1201302721067285</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09128349381821919</v>
+        <v>0.08887776497151015</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1497889885765655</v>
+        <v>0.1504539185205933</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -978,19 +978,19 @@
         <v>55613</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42578</v>
+        <v>43370</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69993</v>
+        <v>69483</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1813373179365975</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1388361264123806</v>
+        <v>0.141418787418513</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2282282155773278</v>
+        <v>0.2265642824762829</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>109</v>
@@ -999,19 +999,19 @@
         <v>112528</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>93855</v>
+        <v>95233</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>132480</v>
+        <v>135174</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1441815710531657</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.12025669259129</v>
+        <v>0.1220226320606086</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.169746873920331</v>
+        <v>0.1731985548427972</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>83393</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>69315</v>
+        <v>67529</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>101367</v>
+        <v>102526</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2272695676942043</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1889029589281805</v>
+        <v>0.1840345463329337</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2762543594908016</v>
+        <v>0.2794123414284467</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>100</v>
@@ -1124,19 +1124,19 @@
         <v>99815</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>84229</v>
+        <v>81772</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>117101</v>
+        <v>118415</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2684182536689674</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2265033788198001</v>
+        <v>0.2198961985913534</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3149007963834868</v>
+        <v>0.3184346825851982</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>179</v>
@@ -1145,19 +1145,19 @@
         <v>183208</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>161778</v>
+        <v>158988</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>210029</v>
+        <v>207132</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2479812233204334</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2189746575398491</v>
+        <v>0.215197987759401</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2842849051277964</v>
+        <v>0.2803635569725854</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>136627</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>119363</v>
+        <v>117998</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>157012</v>
+        <v>155708</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3723482736076968</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3252985268245988</v>
+        <v>0.3215776673331642</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4279034365580107</v>
+        <v>0.4243488393197433</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>115</v>
@@ -1195,19 +1195,19 @@
         <v>120108</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>103204</v>
+        <v>102167</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>141739</v>
+        <v>138950</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3229886961272879</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2775314780466568</v>
+        <v>0.2747421674004324</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3811569431690428</v>
+        <v>0.3736566558180067</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>242</v>
@@ -1216,19 +1216,19 @@
         <v>256735</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>232051</v>
+        <v>228739</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>282185</v>
+        <v>282672</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3475037725886995</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3140923712489233</v>
+        <v>0.309609331867115</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3819507352432685</v>
+        <v>0.3826102435240414</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>113715</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>96782</v>
+        <v>96018</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>131246</v>
+        <v>131277</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3099069481723782</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2637595083463271</v>
+        <v>0.2616759748595818</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3576838728469516</v>
+        <v>0.3577683982498719</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>103</v>
@@ -1266,19 +1266,19 @@
         <v>104766</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>88776</v>
+        <v>88109</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>123195</v>
+        <v>122639</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2817325016528029</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2387308225832098</v>
+        <v>0.2369383144409844</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3312894119491742</v>
+        <v>0.3297936529714905</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>216</v>
@@ -1287,19 +1287,19 @@
         <v>218482</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>193209</v>
+        <v>194590</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>242483</v>
+        <v>244529</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2957257071448776</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2615174981034269</v>
+        <v>0.2633869116837987</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3282121382385361</v>
+        <v>0.3309817474744557</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>33198</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22892</v>
+        <v>22876</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47409</v>
+        <v>45906</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09047521052572059</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06238593630936349</v>
+        <v>0.06234426269153955</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1292028232429839</v>
+        <v>0.1251068122074805</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>45</v>
@@ -1337,19 +1337,19 @@
         <v>47175</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>35663</v>
+        <v>35968</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>62647</v>
+        <v>63467</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1268605485509417</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09590322634035069</v>
+        <v>0.09672275874483578</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1684680075280595</v>
+        <v>0.1706732096520163</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>76</v>
@@ -1358,19 +1358,19 @@
         <v>80373</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>63947</v>
+        <v>65595</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>96479</v>
+        <v>97351</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1087892969459895</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08655483288782179</v>
+        <v>0.08878548612593484</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1305886340085345</v>
+        <v>0.1317692226277802</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>143640</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>121996</v>
+        <v>122646</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>163583</v>
+        <v>167097</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2648286405389254</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2249241776719736</v>
+        <v>0.226121241321507</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3015966203558111</v>
+        <v>0.3080751554004542</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>37</v>
@@ -1483,19 +1483,19 @@
         <v>38928</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28626</v>
+        <v>29304</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>50172</v>
+        <v>51886</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2320179193196724</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1706162970028187</v>
+        <v>0.1746581470397862</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2990323468764315</v>
+        <v>0.3092474617378614</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>174</v>
@@ -1504,19 +1504,19 @@
         <v>182569</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>159636</v>
+        <v>158734</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>208627</v>
+        <v>206652</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2570769224580314</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2247851406334558</v>
+        <v>0.2235152040852988</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2937703674831186</v>
+        <v>0.2909885215210585</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>158937</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>138623</v>
+        <v>138280</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>181278</v>
+        <v>181593</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2930317985580462</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2555777509215467</v>
+        <v>0.2549453136445191</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3342219392493241</v>
+        <v>0.3348012319977598</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>35</v>
@@ -1554,19 +1554,19 @@
         <v>34855</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>25023</v>
+        <v>25531</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>45749</v>
+        <v>47106</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2077380634004995</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1491416033562689</v>
+        <v>0.1521673934612328</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2726686179327084</v>
+        <v>0.2807555933035266</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>189</v>
@@ -1575,19 +1575,19 @@
         <v>193792</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>170962</v>
+        <v>169624</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>218513</v>
+        <v>218755</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2728806722054876</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2407333865177081</v>
+        <v>0.2388500578530012</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3076909731682962</v>
+        <v>0.3080315653015849</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>152843</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>133438</v>
+        <v>132561</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>177028</v>
+        <v>175289</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2817968161843321</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2460183116124707</v>
+        <v>0.2444012871552629</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3263862878431364</v>
+        <v>0.3231795604687971</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -1625,19 +1625,19 @@
         <v>48253</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37317</v>
+        <v>36472</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60622</v>
+        <v>60646</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2875943897848742</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.222412923683665</v>
+        <v>0.217376188898674</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3613113143268467</v>
+        <v>0.3614553517275115</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>199</v>
@@ -1646,19 +1646,19 @@
         <v>201097</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>177034</v>
+        <v>178281</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>227693</v>
+        <v>228573</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2831665256705796</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2492833910200467</v>
+        <v>0.2510391387283815</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.320616601117516</v>
+        <v>0.3218561786052866</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>86968</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>72330</v>
+        <v>71136</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>104980</v>
+        <v>105685</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1603427447186964</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1333551058628573</v>
+        <v>0.1311523119908564</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1935509452724978</v>
+        <v>0.1948508317507714</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -1696,19 +1696,19 @@
         <v>45746</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34662</v>
+        <v>34754</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58386</v>
+        <v>57771</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2726496274949539</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2065898201828895</v>
+        <v>0.2071402855736209</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3479884021430988</v>
+        <v>0.3443239188334412</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>134</v>
@@ -1717,19 +1717,19 @@
         <v>132714</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>112630</v>
+        <v>113605</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>154359</v>
+        <v>157535</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1868758796659014</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.15859500470977</v>
+        <v>0.1599682899500108</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2173546861612534</v>
+        <v>0.2218269679140398</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>275495</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>247312</v>
+        <v>247194</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>307809</v>
+        <v>305398</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2224724378218647</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1997138373808454</v>
+        <v>0.1996185215268975</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2485667802717571</v>
+        <v>0.2466204308918252</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>156</v>
@@ -1842,19 +1842,19 @@
         <v>162446</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>139988</v>
+        <v>141612</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>187527</v>
+        <v>185912</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2274243452692111</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1959827694966425</v>
+        <v>0.1982563205120761</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2625379719277302</v>
+        <v>0.2602771299681759</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>419</v>
@@ -1863,19 +1863,19 @@
         <v>437941</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>400330</v>
+        <v>395420</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>474188</v>
+        <v>472850</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2242838887616515</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2050222198963837</v>
+        <v>0.2025071993385842</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.242847123729546</v>
+        <v>0.2421620050837314</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>365737</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>335662</v>
+        <v>334387</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>397581</v>
+        <v>397225</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2953460847554554</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2710593209871495</v>
+        <v>0.2700297545495762</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3210613738743378</v>
+        <v>0.3207735905112811</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>159</v>
@@ -1913,19 +1913,19 @@
         <v>163513</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>142076</v>
+        <v>141717</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>186982</v>
+        <v>187441</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.22891901810551</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.198906244109027</v>
+        <v>0.1984042293605442</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2617756233981038</v>
+        <v>0.2624183275537776</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>521</v>
@@ -1934,19 +1934,19 @@
         <v>529251</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>488108</v>
+        <v>491729</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>566686</v>
+        <v>568607</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2710464843308134</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2499756767443711</v>
+        <v>0.251830601619702</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2902182260068945</v>
+        <v>0.2912020659328019</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>337892</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>307879</v>
+        <v>307544</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>369939</v>
+        <v>369599</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2728600056309999</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2486236585289373</v>
+        <v>0.2483533340508872</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2987389055470028</v>
+        <v>0.2984647312682152</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>217</v>
@@ -1984,19 +1984,19 @@
         <v>224653</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>201702</v>
+        <v>202552</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>252416</v>
+        <v>250813</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3145141682746282</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2823830767202663</v>
+        <v>0.2835733919144512</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.353382220857562</v>
+        <v>0.3511378582540158</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>548</v>
@@ -2005,19 +2005,19 @@
         <v>562545</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>528209</v>
+        <v>527264</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>605448</v>
+        <v>610779</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.288097461675795</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2705128963895735</v>
+        <v>0.2700289428834978</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3100694954302091</v>
+        <v>0.3127998656238545</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>259210</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>232856</v>
+        <v>231526</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>287415</v>
+        <v>286258</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.20932147179168</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.188039706263133</v>
+        <v>0.1869654222795779</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2320980428844029</v>
+        <v>0.2311637997894281</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>162</v>
@@ -2055,19 +2055,19 @@
         <v>163673</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>142883</v>
+        <v>142231</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>186894</v>
+        <v>187548</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2291424683506507</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2000357548177706</v>
+        <v>0.1991233812205986</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2616514203744515</v>
+        <v>0.2625679991518884</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>430</v>
@@ -2076,19 +2076,19 @@
         <v>422883</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>388757</v>
+        <v>389045</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>462408</v>
+        <v>459583</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2165721652317401</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1990948849707602</v>
+        <v>0.1992427919808061</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.236814003293512</v>
+        <v>0.2353674940744641</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>66455</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>52396</v>
+        <v>51658</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>82609</v>
+        <v>82075</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1895704445482303</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1494651308434472</v>
+        <v>0.1473602642258221</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2356507412955384</v>
+        <v>0.2341280261255851</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>94</v>
@@ -2201,19 +2201,19 @@
         <v>97827</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>81265</v>
+        <v>81027</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>116590</v>
+        <v>115872</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1720022574768929</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1428823998850971</v>
+        <v>0.1424636751623255</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2049931633250514</v>
+        <v>0.2037310801320821</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>160</v>
@@ -2222,19 +2222,19 @@
         <v>164281</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>142203</v>
+        <v>141808</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>189224</v>
+        <v>190011</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1787014556946815</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1546847804843313</v>
+        <v>0.1542555099327538</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2058338304147842</v>
+        <v>0.2066892631909601</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>108688</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>91874</v>
+        <v>91562</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>126559</v>
+        <v>126050</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3100447256479174</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2620804539746423</v>
+        <v>0.2611904394342457</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3610243065161816</v>
+        <v>0.3595722796691707</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>129</v>
@@ -2272,19 +2272,19 @@
         <v>135688</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>115367</v>
+        <v>114563</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>156165</v>
+        <v>156281</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2385718039878798</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2028423744556001</v>
+        <v>0.2014281166035765</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.274575008014621</v>
+        <v>0.2747785585349237</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>230</v>
@@ -2293,19 +2293,19 @@
         <v>244376</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>218564</v>
+        <v>218076</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>272737</v>
+        <v>272760</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.265826253605294</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2377484223069014</v>
+        <v>0.2372175249803617</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2966769789704436</v>
+        <v>0.2967013422729782</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>106268</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>89419</v>
+        <v>88920</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>124242</v>
+        <v>125092</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3031420084869348</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2550776190227087</v>
+        <v>0.2536551751605406</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3544159711167811</v>
+        <v>0.3568409128217325</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>165</v>
@@ -2343,19 +2343,19 @@
         <v>175505</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>154503</v>
+        <v>154028</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>198834</v>
+        <v>199046</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3085784411008626</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2716520063593109</v>
+        <v>0.2708168486560177</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3495978463628288</v>
+        <v>0.3499700308663048</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>266</v>
@@ -2364,19 +2364,19 @@
         <v>281773</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>251630</v>
+        <v>254016</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>311750</v>
+        <v>310106</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3065053905618134</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2737170136175451</v>
+        <v>0.2763125352882571</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3391146776949434</v>
+        <v>0.337325931471505</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>69144</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>55480</v>
+        <v>55554</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>84438</v>
+        <v>84706</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1972428213169175</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1582642434371367</v>
+        <v>0.1584730320465556</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2408700551931499</v>
+        <v>0.2416327570514188</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>151</v>
@@ -2414,19 +2414,19 @@
         <v>159733</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>137740</v>
+        <v>140020</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>182404</v>
+        <v>184762</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2808474974343648</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2421799323407416</v>
+        <v>0.2461882143999477</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3207094870640518</v>
+        <v>0.3248544298166084</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>223</v>
@@ -2435,19 +2435,19 @@
         <v>228877</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>203356</v>
+        <v>203059</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>255367</v>
+        <v>256446</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2489669001382111</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2212057452698296</v>
+        <v>0.2208826790249462</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2777819974503701</v>
+        <v>0.2789556715182869</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>93768</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>77064</v>
+        <v>77578</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>110219</v>
+        <v>110929</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3144465157052418</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2584305721301715</v>
+        <v>0.2601518701820914</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3696142800896155</v>
+        <v>0.371993499768521</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>201</v>
@@ -2560,19 +2560,19 @@
         <v>201122</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>174555</v>
+        <v>176342</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>228453</v>
+        <v>226867</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1610571716367191</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1397823801162273</v>
+        <v>0.1412136960435612</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1829438161881017</v>
+        <v>0.1816741032260639</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>295</v>
@@ -2581,19 +2581,19 @@
         <v>294890</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>266723</v>
+        <v>267722</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>327484</v>
+        <v>327512</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1906253411092409</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1724175412887262</v>
+        <v>0.1730634898895766</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2116953924773101</v>
+        <v>0.2117131631230739</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>149342</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>131682</v>
+        <v>131205</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>167532</v>
+        <v>165229</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5008105728240326</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4415875261423373</v>
+        <v>0.4399879990766348</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5618101649393231</v>
+        <v>0.5540856254314306</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>243</v>
@@ -2631,19 +2631,19 @@
         <v>231702</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>207658</v>
+        <v>203922</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>261038</v>
+        <v>259033</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1855457445162368</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1662911704762094</v>
+        <v>0.1632995847546951</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2090377832612153</v>
+        <v>0.2074320318862183</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>400</v>
@@ -2652,19 +2652,19 @@
         <v>381044</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>349607</v>
+        <v>346680</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>412783</v>
+        <v>417372</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2463179182857923</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2259962531681905</v>
+        <v>0.2241040124145262</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2668347023363693</v>
+        <v>0.2698012394609975</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>43746</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>31659</v>
+        <v>31772</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>56569</v>
+        <v>56798</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1466998250485085</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1061674184535645</v>
+        <v>0.1065468943368946</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.189699608961123</v>
+        <v>0.1904673647823822</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>363</v>
@@ -2702,19 +2702,19 @@
         <v>369876</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>336216</v>
+        <v>338249</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>401976</v>
+        <v>403513</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2961949015870405</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2692398423830763</v>
+        <v>0.2708680843051364</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3219004321995265</v>
+        <v>0.3231306859841653</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>406</v>
@@ -2723,19 +2723,19 @@
         <v>413622</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>377575</v>
+        <v>378224</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>444932</v>
+        <v>446652</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2673774124371796</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2440754810609304</v>
+        <v>0.2444947174577884</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2876170985903956</v>
+        <v>0.288728577028055</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>11344</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>6539</v>
+        <v>6235</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>19491</v>
+        <v>18668</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03804308642221701</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02192692616307099</v>
+        <v>0.02090851792336239</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06536199357590489</v>
+        <v>0.06260339593873283</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>431</v>
@@ -2773,19 +2773,19 @@
         <v>446060</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>414181</v>
+        <v>412704</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>480665</v>
+        <v>480674</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3572021822600035</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3316738219804073</v>
+        <v>0.3304909709952264</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3849140663624745</v>
+        <v>0.3849207274900075</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>443</v>
@@ -2794,19 +2794,19 @@
         <v>457404</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>420172</v>
+        <v>424693</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>494269</v>
+        <v>495354</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2956793281677871</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2716115021222849</v>
+        <v>0.2745341177719144</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3195100341383598</v>
+        <v>0.320211377743958</v>
       </c>
     </row>
     <row r="33">
@@ -2898,19 +2898,19 @@
         <v>801226</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>749939</v>
+        <v>755574</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>849125</v>
+        <v>852024</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2450089271142341</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2293257492476466</v>
+        <v>0.2310490724858796</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2596560142186866</v>
+        <v>0.260542676492347</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>663</v>
@@ -2919,19 +2919,19 @@
         <v>677630</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>631478</v>
+        <v>629996</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>725185</v>
+        <v>720740</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2005937022890932</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.186931547778541</v>
+        <v>0.1864928820048815</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2146709311173938</v>
+        <v>0.2133549759035051</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1430</v>
@@ -2940,19 +2940,19 @@
         <v>1478856</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1408012</v>
+        <v>1415627</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1549539</v>
+        <v>1546590</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2224407786444285</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2117847525158062</v>
+        <v>0.2129301584177293</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2330725323033062</v>
+        <v>0.2326288960036604</v>
       </c>
     </row>
     <row r="35">
@@ -2969,19 +2969,19 @@
         <v>1062545</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1006636</v>
+        <v>1005989</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1113608</v>
+        <v>1114487</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3249185304843899</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3078219236341074</v>
+        <v>0.3076240679779089</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3405330099686621</v>
+        <v>0.3408019646068908</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>757</v>
@@ -2990,19 +2990,19 @@
         <v>766247</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>719620</v>
+        <v>722110</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>815487</v>
+        <v>819244</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2268263358292981</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2130234726221373</v>
+        <v>0.2137607094914447</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2414022888578221</v>
+        <v>0.2425144209196568</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1799</v>
@@ -3011,19 +3011,19 @@
         <v>1828793</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1755548</v>
+        <v>1758401</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1910098</v>
+        <v>1902232</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2750761797719805</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2640591053945224</v>
+        <v>0.2644882770027345</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2873056362457594</v>
+        <v>0.2861224747929491</v>
       </c>
     </row>
     <row r="36">
@@ -3040,19 +3040,19 @@
         <v>889638</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>838550</v>
+        <v>839846</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>941750</v>
+        <v>944674</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2720448832244771</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2564223794206895</v>
+        <v>0.2568187124043427</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2879803107764615</v>
+        <v>0.2888744034756771</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>989</v>
@@ -3061,19 +3061,19 @@
         <v>1016248</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>961916</v>
+        <v>960339</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1071616</v>
+        <v>1070168</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3008319208475317</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2847484809707757</v>
+        <v>0.2842817924918114</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3172221156841228</v>
+        <v>0.3167936418959731</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1859</v>
@@ -3082,19 +3082,19 @@
         <v>1905886</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1837250</v>
+        <v>1835804</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1987207</v>
+        <v>1975220</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2866720778776771</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2763483339707541</v>
+        <v>0.2761307214462919</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2989039082090066</v>
+        <v>0.2971008347487972</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>516780</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>477200</v>
+        <v>472332</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>564429</v>
+        <v>560106</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1580276591768989</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1459241733987295</v>
+        <v>0.1444357389675219</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1725980760257563</v>
+        <v>0.1712763704753663</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>887</v>
@@ -3132,19 +3132,19 @@
         <v>917999</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>867595</v>
+        <v>865541</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>969050</v>
+        <v>967593</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.271748041034077</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.256827557035544</v>
+        <v>0.2562193139567218</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2868602857968909</v>
+        <v>0.2864291686739396</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1415</v>
@@ -3153,19 +3153,19 @@
         <v>1434779</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1371455</v>
+        <v>1373688</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1499565</v>
+        <v>1499032</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.215810963705914</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2062861830857728</v>
+        <v>0.2066219987558994</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.225555624911536</v>
+        <v>0.2254755306821529</v>
       </c>
     </row>
     <row r="38">
@@ -3499,19 +3499,19 @@
         <v>136029</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>115788</v>
+        <v>114126</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>157158</v>
+        <v>156022</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3111290097240115</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2648334082609783</v>
+        <v>0.2610316182783997</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3594546980064603</v>
+        <v>0.3568571001326837</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -3520,19 +3520,19 @@
         <v>81026</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>66785</v>
+        <v>65130</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>97357</v>
+        <v>97475</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2576727095940722</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2123847751891386</v>
+        <v>0.2071193763073881</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3096073235650261</v>
+        <v>0.3099815094953565</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>201</v>
@@ -3541,19 +3541,19 @@
         <v>217055</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>189728</v>
+        <v>190461</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>242258</v>
+        <v>243307</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.288765908823307</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2524098473104708</v>
+        <v>0.2533860649564049</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.32229533401163</v>
+        <v>0.3236904010791276</v>
       </c>
     </row>
     <row r="5">
@@ -3570,19 +3570,19 @@
         <v>141440</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>120914</v>
+        <v>120210</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>161925</v>
+        <v>161519</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3235041786189062</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2765568530611503</v>
+        <v>0.2749467427829423</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3703582594711268</v>
+        <v>0.3694295867949504</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>87</v>
@@ -3591,19 +3591,19 @@
         <v>97288</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>81489</v>
+        <v>80912</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>115645</v>
+        <v>115127</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3093874104373305</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2591449586858933</v>
+        <v>0.2573084028955999</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3677643888221875</v>
+        <v>0.3661184394100467</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>218</v>
@@ -3612,19 +3612,19 @@
         <v>238728</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>212042</v>
+        <v>212246</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>269111</v>
+        <v>268123</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3175985190339919</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2820960819261176</v>
+        <v>0.2823674637658897</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3580203503084052</v>
+        <v>0.3567050687592823</v>
       </c>
     </row>
     <row r="6">
@@ -3641,19 +3641,19 @@
         <v>102492</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>86330</v>
+        <v>85298</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>121667</v>
+        <v>124783</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2344213733297562</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1974567287283747</v>
+        <v>0.1950946129793237</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2782808011029831</v>
+        <v>0.2854077974016009</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>78</v>
@@ -3662,19 +3662,19 @@
         <v>87922</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>69837</v>
+        <v>71219</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>106443</v>
+        <v>107725</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2796016822748036</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2220893593974931</v>
+        <v>0.2264854573221599</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3384996773045854</v>
+        <v>0.3425789765687975</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>173</v>
@@ -3683,19 +3683,19 @@
         <v>190413</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>166967</v>
+        <v>165278</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>214892</v>
+        <v>217517</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2533222663060214</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2221295363340783</v>
+        <v>0.2198828408831969</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2858880843838261</v>
+        <v>0.2893803338538294</v>
       </c>
     </row>
     <row r="7">
@@ -3712,19 +3712,19 @@
         <v>57251</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44315</v>
+        <v>42927</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73044</v>
+        <v>73581</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1309454383273261</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1013590691183091</v>
+        <v>0.09818278894918998</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1670676839950328</v>
+        <v>0.1682969101592179</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -3733,19 +3733,19 @@
         <v>48218</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35202</v>
+        <v>35927</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63625</v>
+        <v>63608</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1533381976937936</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1119460672980251</v>
+        <v>0.1142509273430529</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2023350152327662</v>
+        <v>0.2022813518233336</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>95</v>
@@ -3754,19 +3754,19 @@
         <v>105469</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>88157</v>
+        <v>86870</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>127422</v>
+        <v>128156</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1403133058366796</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1172823210061843</v>
+        <v>0.1155696564849451</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1695200013046559</v>
+        <v>0.1704964267323397</v>
       </c>
     </row>
     <row r="8">
@@ -3858,19 +3858,19 @@
         <v>135162</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>115191</v>
+        <v>114580</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>155532</v>
+        <v>157205</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3227398454866377</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2750528394428151</v>
+        <v>0.2735943181688635</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.371376865405117</v>
+        <v>0.3753727892233424</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>88</v>
@@ -3879,19 +3879,19 @@
         <v>96028</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>80109</v>
+        <v>80189</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>114901</v>
+        <v>114999</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.284096239215927</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2370014141781208</v>
+        <v>0.2372385101428777</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3399336428461973</v>
+        <v>0.3402214941093548</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>206</v>
@@ -3900,19 +3900,19 @@
         <v>231190</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>204222</v>
+        <v>205020</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>256925</v>
+        <v>259960</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3054805580116525</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2698468147700375</v>
+        <v>0.2709014968465872</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3394854856648944</v>
+        <v>0.3434948084674511</v>
       </c>
     </row>
     <row r="10">
@@ -3929,19 +3929,19 @@
         <v>93298</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77056</v>
+        <v>75425</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112831</v>
+        <v>111948</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2227760975747411</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1839934780954311</v>
+        <v>0.1800980995100224</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2694178160498472</v>
+        <v>0.2673081115138857</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -3950,19 +3950,19 @@
         <v>100304</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83665</v>
+        <v>83637</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>119836</v>
+        <v>118206</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2967466100520124</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2475206364489464</v>
+        <v>0.2474375979215239</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3545321810044456</v>
+        <v>0.3497090977454981</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -3971,19 +3971,19 @@
         <v>193602</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>168437</v>
+        <v>168691</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>218436</v>
+        <v>220625</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2558133439066096</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2225618795822878</v>
+        <v>0.2228983246047322</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2886284359595136</v>
+        <v>0.2915204414305287</v>
       </c>
     </row>
     <row r="11">
@@ -4000,19 +4000,19 @@
         <v>126127</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>105999</v>
+        <v>107195</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>145673</v>
+        <v>148768</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3011651337362977</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2531023545431656</v>
+        <v>0.2559584061186764</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3478363591207374</v>
+        <v>0.3552266661436324</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>83</v>
@@ -4021,19 +4021,19 @@
         <v>93594</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>75890</v>
+        <v>76590</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>111624</v>
+        <v>111375</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2768969838819726</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.224519965951418</v>
+        <v>0.2265913859947258</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3302387953204523</v>
+        <v>0.3295022269077003</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>194</v>
@@ -4042,19 +4042,19 @@
         <v>219721</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>194093</v>
+        <v>194660</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>245871</v>
+        <v>245090</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2903263167820095</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2564633134560468</v>
+        <v>0.2572116163204568</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3248790939592959</v>
+        <v>0.3238468227675027</v>
       </c>
     </row>
     <row r="12">
@@ -4071,19 +4071,19 @@
         <v>64210</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>50802</v>
+        <v>50256</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>83427</v>
+        <v>81854</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1533189232023235</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1213050834197432</v>
+        <v>0.120002017466603</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1992063277218134</v>
+        <v>0.1954514166658659</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>43</v>
@@ -4092,19 +4092,19 @@
         <v>48086</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36463</v>
+        <v>35439</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>62466</v>
+        <v>63397</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.142260166850088</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1078766621597054</v>
+        <v>0.1048463017072024</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1848041741066143</v>
+        <v>0.187559190953477</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>102</v>
@@ -4113,19 +4113,19 @@
         <v>112295</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>95056</v>
+        <v>91835</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>133273</v>
+        <v>133888</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1483797812997285</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1256016207214391</v>
+        <v>0.1213449664948905</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1760988290823417</v>
+        <v>0.1769121044578255</v>
       </c>
     </row>
     <row r="13">
@@ -4217,19 +4217,19 @@
         <v>163587</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>141397</v>
+        <v>141625</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>189064</v>
+        <v>185761</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2599024914343034</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2246490039513635</v>
+        <v>0.2250111838030481</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3003798791991815</v>
+        <v>0.2951326759236058</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -4238,19 +4238,19 @@
         <v>58441</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45374</v>
+        <v>45539</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72762</v>
+        <v>73599</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.224663055755402</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1744304134910021</v>
+        <v>0.1750628937016276</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2797166273853498</v>
+        <v>0.2829328057705934</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>214</v>
@@ -4259,19 +4259,19 @@
         <v>222028</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>194851</v>
+        <v>196391</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>248566</v>
+        <v>247064</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2495974230585651</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2190458226710541</v>
+        <v>0.2207776588726442</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2794303755690598</v>
+        <v>0.2777425105489525</v>
       </c>
     </row>
     <row r="15">
@@ -4288,19 +4288,19 @@
         <v>147150</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>127926</v>
+        <v>128417</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>170566</v>
+        <v>172095</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2337891419531979</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.203246250292849</v>
+        <v>0.204025621868774</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2709906490377633</v>
+        <v>0.2734202437065589</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>52</v>
@@ -4309,19 +4309,19 @@
         <v>55054</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>43144</v>
+        <v>43020</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>69449</v>
+        <v>68617</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2116409311639412</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1658572474761801</v>
+        <v>0.1653808430281339</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2669773990705878</v>
+        <v>0.2637818453863439</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>196</v>
@@ -4330,19 +4330,19 @@
         <v>202204</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>179059</v>
+        <v>179155</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>229159</v>
+        <v>226908</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2273123405462955</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2012931145715561</v>
+        <v>0.2014004088377091</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2576142332574046</v>
+        <v>0.2550836600311238</v>
       </c>
     </row>
     <row r="16">
@@ -4359,19 +4359,19 @@
         <v>181071</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>159978</v>
+        <v>158465</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>205222</v>
+        <v>204024</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2876816379426363</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2541699496813937</v>
+        <v>0.2517657525920513</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3260525634552909</v>
+        <v>0.324149202535616</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -4380,19 +4380,19 @@
         <v>70746</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>57533</v>
+        <v>57930</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>87639</v>
+        <v>86071</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2719665853190725</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2211695360900014</v>
+        <v>0.2226958853299995</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3369075170213983</v>
+        <v>0.330879990282259</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>235</v>
@@ -4401,19 +4401,19 @@
         <v>251818</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>224613</v>
+        <v>221622</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>281535</v>
+        <v>278796</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2830860850146673</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2525040781356336</v>
+        <v>0.2491410053096884</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3164934356224044</v>
+        <v>0.313414062895947</v>
       </c>
     </row>
     <row r="17">
@@ -4430,19 +4430,19 @@
         <v>137607</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>116786</v>
+        <v>116247</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>160815</v>
+        <v>161756</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2186267286698623</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1855472960846029</v>
+        <v>0.1846903456095723</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.255499126958791</v>
+        <v>0.2569947675622239</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>69</v>
@@ -4451,19 +4451,19 @@
         <v>75887</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>60310</v>
+        <v>62012</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>91293</v>
+        <v>92348</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2917294277615843</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2318471503986189</v>
+        <v>0.2383895573129917</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3509525890245877</v>
+        <v>0.3550103447616723</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>190</v>
@@ -4472,19 +4472,19 @@
         <v>213494</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>188192</v>
+        <v>187616</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>239716</v>
+        <v>243570</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2400041513804721</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2115603797849105</v>
+        <v>0.2109130795697262</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.269482298193299</v>
+        <v>0.2738143292650815</v>
       </c>
     </row>
     <row r="18">
@@ -4576,19 +4576,19 @@
         <v>306405</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>275927</v>
+        <v>277955</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>340350</v>
+        <v>338513</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2643681461717551</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2380712931336394</v>
+        <v>0.2398209655214816</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2936559040257455</v>
+        <v>0.2920708110444213</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>177</v>
@@ -4597,19 +4597,19 @@
         <v>189147</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>164937</v>
+        <v>162538</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>214535</v>
+        <v>213674</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2467166670699693</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2151376674267953</v>
+        <v>0.212008213304233</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2798312768665307</v>
+        <v>0.2787089147081381</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>467</v>
@@ -4618,19 +4618,19 @@
         <v>495552</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>457142</v>
+        <v>455506</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>532948</v>
+        <v>533963</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2573406383074016</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2373939875989349</v>
+        <v>0.2365443874386694</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2767602152885564</v>
+        <v>0.2772872241091549</v>
       </c>
     </row>
     <row r="20">
@@ -4647,19 +4647,19 @@
         <v>298039</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>265863</v>
+        <v>266038</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>328401</v>
+        <v>325953</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.257149667945202</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2293881179368669</v>
+        <v>0.2295393084611632</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2833465565845038</v>
+        <v>0.2812342556897456</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>194</v>
@@ -4668,19 +4668,19 @@
         <v>209500</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>185782</v>
+        <v>182725</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>237087</v>
+        <v>234067</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2732645775970443</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2423270584277513</v>
+        <v>0.2383398444312008</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3092481735849332</v>
+        <v>0.3053080816048727</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>476</v>
@@ -4689,19 +4689,19 @@
         <v>507539</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>462320</v>
+        <v>469673</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>546013</v>
+        <v>547604</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2635654279876684</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2400830888633556</v>
+        <v>0.2439013926311901</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2835447658446942</v>
+        <v>0.2843710976371132</v>
       </c>
     </row>
     <row r="21">
@@ -4718,19 +4718,19 @@
         <v>311450</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>279725</v>
+        <v>281646</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>344545</v>
+        <v>345492</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2687206886627831</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2413485733880933</v>
+        <v>0.2430060649984222</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2972751641525951</v>
+        <v>0.2980927966912617</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>196</v>
@@ -4739,19 +4739,19 @@
         <v>211408</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>188078</v>
+        <v>185986</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>237300</v>
+        <v>236753</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2757533636291448</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2453223664634617</v>
+        <v>0.2425935027354828</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3095251532152077</v>
+        <v>0.308812155438263</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>483</v>
@@ -4760,19 +4760,19 @@
         <v>522858</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>481126</v>
+        <v>483112</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>566425</v>
+        <v>563232</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.271520577462388</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2498492671531224</v>
+        <v>0.2508805082466432</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2941447771655736</v>
+        <v>0.2924867753911273</v>
       </c>
     </row>
     <row r="22">
@@ -4789,19 +4789,19 @@
         <v>243115</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>213676</v>
+        <v>214929</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>270620</v>
+        <v>271770</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2097614972202597</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1843607068498782</v>
+        <v>0.1854423679255494</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2334928024507889</v>
+        <v>0.2344847937179371</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>144</v>
@@ -4810,19 +4810,19 @@
         <v>156601</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>133048</v>
+        <v>136154</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>180335</v>
+        <v>181845</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2042653917038416</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1735433085015137</v>
+        <v>0.1775942389111234</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2352228730491671</v>
+        <v>0.2371922199357328</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>368</v>
@@ -4831,19 +4831,19 @@
         <v>399717</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>365337</v>
+        <v>366621</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>440901</v>
+        <v>437299</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.207573356242542</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1897199206474339</v>
+        <v>0.1903865101970955</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2289600168311995</v>
+        <v>0.2270895935883195</v>
       </c>
     </row>
     <row r="23">
@@ -4935,19 +4935,19 @@
         <v>134943</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>115952</v>
+        <v>115309</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>156480</v>
+        <v>154615</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2642854031983007</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2270915703054401</v>
+        <v>0.2258331437358173</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3064652336638641</v>
+        <v>0.3028125289343789</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>133</v>
@@ -4956,19 +4956,19 @@
         <v>141144</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>120422</v>
+        <v>120696</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>162860</v>
+        <v>163661</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1853444186493776</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1581330555687037</v>
+        <v>0.1584928320083409</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2138613563983356</v>
+        <v>0.2149133948845343</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>261</v>
@@ -4977,19 +4977,19 @@
         <v>276087</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>247943</v>
+        <v>247547</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>305958</v>
+        <v>308029</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.217029351723799</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1949055619211732</v>
+        <v>0.1945944713558474</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2405103230728112</v>
+        <v>0.2421384876288212</v>
       </c>
     </row>
     <row r="25">
@@ -5006,19 +5006,19 @@
         <v>136198</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>116620</v>
+        <v>117065</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>157797</v>
+        <v>156888</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2667438427002974</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2283988815516256</v>
+        <v>0.2292703076908585</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3090449523197076</v>
+        <v>0.307263691566125</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>133</v>
@@ -5027,19 +5027,19 @@
         <v>146582</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>124046</v>
+        <v>123828</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>169658</v>
+        <v>170290</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1924851814643172</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1628927412947223</v>
+        <v>0.1626056084402251</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2227883156600832</v>
+        <v>0.2236180663210447</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>266</v>
@@ -5048,19 +5048,19 @@
         <v>282780</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>252206</v>
+        <v>254252</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>314304</v>
+        <v>313267</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2222907472917864</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1982570397978761</v>
+        <v>0.1998647546112792</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2470716258805841</v>
+        <v>0.2462560174884085</v>
       </c>
     </row>
     <row r="26">
@@ -5077,19 +5077,19 @@
         <v>141346</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>122882</v>
+        <v>120483</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>164385</v>
+        <v>163813</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2768245733987615</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2406634860009739</v>
+        <v>0.2359654567939033</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3219470296996236</v>
+        <v>0.3208271695073541</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>167</v>
@@ -5098,19 +5098,19 @@
         <v>183917</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>161130</v>
+        <v>160941</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>210476</v>
+        <v>208140</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2415126998767907</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.211589060086079</v>
+        <v>0.2113418894030341</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2763889667338126</v>
+        <v>0.2733210760305403</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>300</v>
@@ -5119,19 +5119,19 @@
         <v>325263</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>291167</v>
+        <v>294401</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>356763</v>
+        <v>361248</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2556860010544911</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2288837250761384</v>
+        <v>0.2314255406444944</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2804479271383248</v>
+        <v>0.2839733324218532</v>
       </c>
     </row>
     <row r="27">
@@ -5148,19 +5148,19 @@
         <v>98109</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>80858</v>
+        <v>80918</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>116772</v>
+        <v>117696</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1921461807026403</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1583607186249507</v>
+        <v>0.1584785081433255</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2286968155517651</v>
+        <v>0.2305077493472011</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>270</v>
@@ -5169,19 +5169,19 @@
         <v>289879</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>263802</v>
+        <v>265076</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>319570</v>
+        <v>318741</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3806577000095145</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3464146870575726</v>
+        <v>0.3480871667193984</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4196470868238689</v>
+        <v>0.4185578542735812</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>363</v>
@@ -5190,19 +5190,19 @@
         <v>387988</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>355228</v>
+        <v>354358</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>424254</v>
+        <v>422546</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3049938999299235</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2792410829460112</v>
+        <v>0.2785576377143076</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.333501691940192</v>
+        <v>0.3321594587157852</v>
       </c>
     </row>
     <row r="28">
@@ -5294,19 +5294,19 @@
         <v>99962</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>84752</v>
+        <v>85773</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>114999</v>
+        <v>115740</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3745556689760971</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3175619683521372</v>
+        <v>0.321387532363253</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4308996233289343</v>
+        <v>0.4336752938089377</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>214</v>
@@ -5315,19 +5315,19 @@
         <v>219650</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>192640</v>
+        <v>194939</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>246882</v>
+        <v>252724</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1979984575812316</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1736514589165606</v>
+        <v>0.1757233304079029</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2225460640971217</v>
+        <v>0.2278122614513179</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>314</v>
@@ -5336,19 +5336,19 @@
         <v>319612</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>290783</v>
+        <v>288634</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>352486</v>
+        <v>348622</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2322367896324857</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2112887715085378</v>
+        <v>0.2097274721575868</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2561240484531375</v>
+        <v>0.2533157935321341</v>
       </c>
     </row>
     <row r="30">
@@ -5365,19 +5365,19 @@
         <v>103852</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>89065</v>
+        <v>87859</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>120709</v>
+        <v>119697</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3891324294407159</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3337235715043619</v>
+        <v>0.3292047365581188</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4522945396344245</v>
+        <v>0.4485011056739383</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>209</v>
@@ -5386,19 +5386,19 @@
         <v>222066</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>196267</v>
+        <v>196663</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>249998</v>
+        <v>249542</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2001763086418063</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1769205514505132</v>
+        <v>0.1772773448094014</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2253547773872566</v>
+        <v>0.2249439739355209</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>314</v>
@@ -5407,19 +5407,19 @@
         <v>325918</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>297069</v>
+        <v>288816</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>358225</v>
+        <v>355539</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2368190623187489</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2158565833265971</v>
+        <v>0.2098598380866167</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2602939528767496</v>
+        <v>0.2583422516496565</v>
       </c>
     </row>
     <row r="31">
@@ -5436,19 +5436,19 @@
         <v>50941</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>39641</v>
+        <v>38921</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>65194</v>
+        <v>65320</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.190873655148636</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1485323793812494</v>
+        <v>0.1458359596438602</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2442806088934655</v>
+        <v>0.2447534222284305</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>237</v>
@@ -5457,19 +5457,19 @@
         <v>254414</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>226495</v>
+        <v>225573</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>283003</v>
+        <v>284221</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2293360783768269</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.204169278673669</v>
+        <v>0.2033376700140306</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.255107209151768</v>
+        <v>0.2562043088078197</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>286</v>
@@ -5478,19 +5478,19 @@
         <v>305355</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>276458</v>
+        <v>273901</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>340401</v>
+        <v>334469</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2218773673585752</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2008800385664952</v>
+        <v>0.1990221829676184</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2473422922913418</v>
+        <v>0.2430322344954854</v>
       </c>
     </row>
     <row r="32">
@@ -5507,19 +5507,19 @@
         <v>12127</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>6739</v>
+        <v>5950</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>21566</v>
+        <v>20529</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04543824643455101</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02525066375305169</v>
+        <v>0.02229322883271292</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08080855324408015</v>
+        <v>0.07692135566499601</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>384</v>
@@ -5528,19 +5528,19 @@
         <v>413221</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>382196</v>
+        <v>382640</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>445503</v>
+        <v>447824</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3724891554001352</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3445221927204981</v>
+        <v>0.3449226682663898</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4015884433039357</v>
+        <v>0.4036807665340558</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>395</v>
@@ -5549,19 +5549,19 @@
         <v>425348</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>389228</v>
+        <v>393815</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>458736</v>
+        <v>459829</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3090667806901902</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2828212681979496</v>
+        <v>0.286154426633322</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3333269278690756</v>
+        <v>0.3341217100040513</v>
       </c>
     </row>
     <row r="33">
@@ -5653,19 +5653,19 @@
         <v>976088</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>925036</v>
+        <v>921611</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1030956</v>
+        <v>1028708</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2852466326523408</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2703274011492943</v>
+        <v>0.2693264715135239</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3012809332050519</v>
+        <v>0.3006238989562226</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>742</v>
@@ -5674,19 +5674,19 @@
         <v>785436</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>738986</v>
+        <v>738821</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>837517</v>
+        <v>836784</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2212418406994964</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2081576290429742</v>
+        <v>0.2081111316162658</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2359120089260948</v>
+        <v>0.2357054978087108</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1663</v>
@@ -5695,19 +5695,19 @@
         <v>1761524</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1690176</v>
+        <v>1687380</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1840273</v>
+        <v>1830104</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2526557145674115</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2424221661825464</v>
+        <v>0.2420211966803174</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2639505914843879</v>
+        <v>0.262492103768445</v>
       </c>
     </row>
     <row r="35">
@@ -5724,19 +5724,19 @@
         <v>919977</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>871380</v>
+        <v>865847</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>973330</v>
+        <v>975724</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2688491162551754</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2546471584832378</v>
+        <v>0.2530304029758659</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2844404560190732</v>
+        <v>0.2851401158666024</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>766</v>
@@ -5745,19 +5745,19 @@
         <v>830794</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>780386</v>
+        <v>783863</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>887202</v>
+        <v>882486</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2340181311193813</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2198192493438122</v>
+        <v>0.2207987798349718</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2499072238221748</v>
+        <v>0.2485787551605591</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1648</v>
@@ -5766,19 +5766,19 @@
         <v>1750771</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1679838</v>
+        <v>1681836</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1833072</v>
+        <v>1829448</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2511133538420361</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2409394696107487</v>
+        <v>0.2412259873733846</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2629177955839366</v>
+        <v>0.2623980172486767</v>
       </c>
     </row>
     <row r="36">
@@ -5795,19 +5795,19 @@
         <v>913426</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>864977</v>
+        <v>861400</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>969421</v>
+        <v>969844</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2669344802524718</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2527761066833304</v>
+        <v>0.2517308911440682</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.283298269324615</v>
+        <v>0.2834217906579343</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>829</v>
@@ -5816,19 +5816,19 @@
         <v>902002</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>846637</v>
+        <v>850877</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>958546</v>
+        <v>953169</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2540762506619483</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2384807582502911</v>
+        <v>0.2396751149115666</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2700033885089891</v>
+        <v>0.2684887263235607</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1671</v>
@@ -5837,19 +5837,19 @@
         <v>1815428</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1736729</v>
+        <v>1735314</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1891607</v>
+        <v>1892548</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.260387134428573</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2490992970526876</v>
+        <v>0.2488962914343085</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2713134230757266</v>
+        <v>0.2714483893016094</v>
       </c>
     </row>
     <row r="37">
@@ -5866,19 +5866,19 @@
         <v>612418</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>562600</v>
+        <v>565282</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>659629</v>
+        <v>660285</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1789697708400121</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1644111887378636</v>
+        <v>0.1651950127101343</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1927664442558963</v>
+        <v>0.1929579114700194</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>953</v>
@@ -5887,19 +5887,19 @@
         <v>1031893</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>976396</v>
+        <v>975490</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1088296</v>
+        <v>1086391</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.290663777519174</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2750314670356161</v>
+        <v>0.2747763600824092</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3065515297031033</v>
+        <v>0.306014782960744</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1513</v>
@@ -5908,19 +5908,19 @@
         <v>1644311</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1561241</v>
+        <v>1571494</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1713709</v>
+        <v>1722921</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2358437971619793</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.223929008255368</v>
+        <v>0.2253996508658164</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2457974900622351</v>
+        <v>0.2471188787104942</v>
       </c>
     </row>
     <row r="38">
@@ -6254,19 +6254,19 @@
         <v>167124</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>147571</v>
+        <v>147337</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>189762</v>
+        <v>188296</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3894832094391097</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3439141645315026</v>
+        <v>0.3433690551085836</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4422410199537073</v>
+        <v>0.4388237877489397</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>125</v>
@@ -6275,19 +6275,19 @@
         <v>124143</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>107200</v>
+        <v>106096</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>143230</v>
+        <v>141977</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3577054401192746</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3088835713546838</v>
+        <v>0.3057038094917808</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4127023611823331</v>
+        <v>0.4090905247770777</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>277</v>
@@ -6296,19 +6296,19 @@
         <v>291268</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>265208</v>
+        <v>263141</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>318719</v>
+        <v>318785</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3752737466171724</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3416982478764283</v>
+        <v>0.3390352279168654</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4106429696209348</v>
+        <v>0.4107275313427394</v>
       </c>
     </row>
     <row r="5">
@@ -6325,19 +6325,19 @@
         <v>109541</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>92444</v>
+        <v>90880</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>129754</v>
+        <v>126765</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.25528613579134</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2154420605684757</v>
+        <v>0.21179637057628</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3023912415943995</v>
+        <v>0.2954269892141126</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -6346,19 +6346,19 @@
         <v>104323</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>86608</v>
+        <v>87046</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>121398</v>
+        <v>121132</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3005956072043606</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2495502062157687</v>
+        <v>0.2508121472128764</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3497933067872538</v>
+        <v>0.349028079459086</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>202</v>
@@ -6367,19 +6367,19 @@
         <v>213864</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>189033</v>
+        <v>190436</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>239296</v>
+        <v>242645</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2755463133716172</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.243553463290219</v>
+        <v>0.2453611656634605</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3083123969448568</v>
+        <v>0.312627885145736</v>
       </c>
     </row>
     <row r="6">
@@ -6396,19 +6396,19 @@
         <v>93458</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>77395</v>
+        <v>76421</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>111557</v>
+        <v>111001</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2178029606235801</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1803683982405591</v>
+        <v>0.1780991096931159</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2599834245979169</v>
+        <v>0.2586879987357418</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>61</v>
@@ -6417,19 +6417,19 @@
         <v>64721</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>50673</v>
+        <v>50937</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>81821</v>
+        <v>80567</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1864849437913584</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1460071373644903</v>
+        <v>0.1467698232705416</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2357574346697177</v>
+        <v>0.2321450098387026</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>150</v>
@@ -6438,19 +6438,19 @@
         <v>158178</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>135024</v>
+        <v>137127</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>183410</v>
+        <v>182474</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2037990766078292</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1739673844908773</v>
+        <v>0.1766762899814688</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2363083954504079</v>
+        <v>0.2351023504349329</v>
       </c>
     </row>
     <row r="7">
@@ -6467,19 +6467,19 @@
         <v>58969</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44633</v>
+        <v>45776</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75287</v>
+        <v>76353</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1374276941459702</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1040168609955007</v>
+        <v>0.1066815724250013</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1754554524987716</v>
+        <v>0.1779403579495472</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -6488,19 +6488,19 @@
         <v>53868</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40497</v>
+        <v>41127</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71091</v>
+        <v>71473</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1552140088850065</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1166866923438358</v>
+        <v>0.1185021076735243</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2048419595309516</v>
+        <v>0.2059418031439263</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>99</v>
@@ -6509,19 +6509,19 @@
         <v>112837</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>92794</v>
+        <v>93867</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>136704</v>
+        <v>136293</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1453808634033812</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1195575985920194</v>
+        <v>0.1209397798616734</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1761317765656966</v>
+        <v>0.1756026769038136</v>
       </c>
     </row>
     <row r="8">
@@ -6613,19 +6613,19 @@
         <v>133050</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>115056</v>
+        <v>114638</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>152456</v>
+        <v>154521</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3527042803973277</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3050048383439792</v>
+        <v>0.3038969403343162</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4041496102778281</v>
+        <v>0.4096230652017468</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>136</v>
@@ -6634,19 +6634,19 @@
         <v>140235</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>121713</v>
+        <v>120304</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>160562</v>
+        <v>158675</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3767004052242689</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3269459752268618</v>
+        <v>0.323161379588205</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.431301131795587</v>
+        <v>0.4262322322534808</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>263</v>
@@ -6655,19 +6655,19 @@
         <v>273285</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>246361</v>
+        <v>243789</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>298724</v>
+        <v>301381</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3646230431449517</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3287000223145073</v>
+        <v>0.3252685360717585</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3985649257383558</v>
+        <v>0.402108914350861</v>
       </c>
     </row>
     <row r="10">
@@ -6684,19 +6684,19 @@
         <v>113168</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>94867</v>
+        <v>94475</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>132189</v>
+        <v>133438</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3000003842091857</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2514855097772071</v>
+        <v>0.2504469595269642</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3504240273788846</v>
+        <v>0.3537333796002375</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>85</v>
@@ -6705,19 +6705,19 @@
         <v>91161</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73589</v>
+        <v>75891</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107819</v>
+        <v>107485</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2448770315734024</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1976750857032234</v>
+        <v>0.2038590157414962</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2896248142687666</v>
+        <v>0.2887257284518862</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>189</v>
@@ -6726,19 +6726,19 @@
         <v>204329</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>180028</v>
+        <v>179752</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>229702</v>
+        <v>231429</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2726208732815764</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2401976545904201</v>
+        <v>0.2398293913664673</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3064741278504595</v>
+        <v>0.3087776991346286</v>
       </c>
     </row>
     <row r="11">
@@ -6755,19 +6755,19 @@
         <v>88494</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>73005</v>
+        <v>72399</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>108201</v>
+        <v>106634</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2345905824897285</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1935319307647457</v>
+        <v>0.1919250401163963</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2868328584933632</v>
+        <v>0.2826777526760763</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>86</v>
@@ -6776,19 +6776,19 @@
         <v>88162</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>72275</v>
+        <v>73317</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>105888</v>
+        <v>104206</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2368195408999899</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1941455290990743</v>
+        <v>0.1969429691196924</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2844361337901679</v>
+        <v>0.2799195520194098</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>168</v>
@@ -6797,19 +6797,19 @@
         <v>176655</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>154268</v>
+        <v>154751</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>201111</v>
+        <v>202350</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.235697695686456</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2058274696865087</v>
+        <v>0.2064718956851113</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2683263688802175</v>
+        <v>0.2699801723145148</v>
       </c>
     </row>
     <row r="12">
@@ -6826,19 +6826,19 @@
         <v>42515</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>31179</v>
+        <v>30365</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>56444</v>
+        <v>56460</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.112704752903758</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08265253184011805</v>
+        <v>0.0804956852615429</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1496289707982039</v>
+        <v>0.1496717630052115</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>45</v>
@@ -6847,19 +6847,19 @@
         <v>52715</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>39329</v>
+        <v>39959</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>68057</v>
+        <v>69780</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1416030223023388</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1056462863164343</v>
+        <v>0.1073371559968681</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1828159872621725</v>
+        <v>0.1874418219097737</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>86</v>
@@ -6868,19 +6868,19 @@
         <v>95230</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>77164</v>
+        <v>75930</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>114923</v>
+        <v>116604</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1270583878870159</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1029542246288917</v>
+        <v>0.1013071108792914</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1533334057272809</v>
+        <v>0.1555763268549274</v>
       </c>
     </row>
     <row r="13">
@@ -6972,19 +6972,19 @@
         <v>178326</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>156608</v>
+        <v>156991</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>200156</v>
+        <v>201057</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3416768834276162</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3000650057208131</v>
+        <v>0.3007986556274607</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3835031868269306</v>
+        <v>0.3852298529412157</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -6993,19 +6993,19 @@
         <v>44305</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>32681</v>
+        <v>34500</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56379</v>
+        <v>57017</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2667029731618196</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1967284020066473</v>
+        <v>0.2076790902437587</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3393816719738658</v>
+        <v>0.3432243994288519</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>217</v>
@@ -7014,19 +7014,19 @@
         <v>222631</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>197197</v>
+        <v>197012</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>247642</v>
+        <v>247180</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3235748259015851</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2866089589058181</v>
+        <v>0.2863401958324904</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3599254717926214</v>
+        <v>0.3592548495409944</v>
       </c>
     </row>
     <row r="15">
@@ -7043,19 +7043,19 @@
         <v>113502</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>95902</v>
+        <v>95096</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>133123</v>
+        <v>132185</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2174734737380795</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1837512730662132</v>
+        <v>0.1822060270821247</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.255066948005767</v>
+        <v>0.2532696492256647</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>37</v>
@@ -7064,19 +7064,19 @@
         <v>38547</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>28328</v>
+        <v>27831</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>51493</v>
+        <v>49433</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2320370372470731</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1705217507790865</v>
+        <v>0.1675316590805024</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3099673295686932</v>
+        <v>0.2975660291343573</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>146</v>
@@ -7085,19 +7085,19 @@
         <v>152049</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>129857</v>
+        <v>130988</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>175769</v>
+        <v>176348</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2209897697867875</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1887358636915127</v>
+        <v>0.190379966041728</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2554644674080169</v>
+        <v>0.256306958155982</v>
       </c>
     </row>
     <row r="16">
@@ -7114,19 +7114,19 @@
         <v>132262</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>111572</v>
+        <v>111552</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>152763</v>
+        <v>152678</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2534162827876807</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2137756247328664</v>
+        <v>0.2137363021982502</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2926972071113816</v>
+        <v>0.2925341562996194</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -7135,19 +7135,19 @@
         <v>33353</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23547</v>
+        <v>23873</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46035</v>
+        <v>45508</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2007737895123678</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1417444642865284</v>
+        <v>0.1437079585487846</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.27711272191515</v>
+        <v>0.2739409662014076</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>153</v>
@@ -7156,19 +7156,19 @@
         <v>165614</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>144156</v>
+        <v>143852</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>189848</v>
+        <v>192340</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.240706028804594</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2095187393670369</v>
+        <v>0.2090757171632294</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2759267074369414</v>
+        <v>0.2795493838059327</v>
       </c>
     </row>
     <row r="17">
@@ -7185,19 +7185,19 @@
         <v>97824</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>81009</v>
+        <v>81297</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>116645</v>
+        <v>116360</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1874333600466236</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1552154632392912</v>
+        <v>0.1557676941692109</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2234948896976642</v>
+        <v>0.2229489722179753</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -7206,19 +7206,19 @@
         <v>49918</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38046</v>
+        <v>37589</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>64392</v>
+        <v>63300</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3004862000787396</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.229024983915633</v>
+        <v>0.2262713298810243</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3876163992081106</v>
+        <v>0.3810416824363964</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>139</v>
@@ -7227,19 +7227,19 @@
         <v>147742</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>125312</v>
+        <v>125152</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>169889</v>
+        <v>170029</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2147293755070334</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1821300316055364</v>
+        <v>0.1818981442417267</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2469192481047941</v>
+        <v>0.2471221509759108</v>
       </c>
     </row>
     <row r="18">
@@ -7331,19 +7331,19 @@
         <v>378994</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>346384</v>
+        <v>347450</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>409475</v>
+        <v>409503</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3296638542409855</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3012980509705095</v>
+        <v>0.3022259918099461</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3561771101017435</v>
+        <v>0.3562021023241249</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>287</v>
@@ -7352,19 +7352,19 @@
         <v>285412</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>259794</v>
+        <v>260731</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>315751</v>
+        <v>313052</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3455867189035524</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3145673244876653</v>
+        <v>0.3157027210285517</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3823224986998308</v>
+        <v>0.3790548177786589</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>653</v>
@@ -7373,19 +7373,19 @@
         <v>664406</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>622777</v>
+        <v>624662</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>709175</v>
+        <v>709287</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3363205056213154</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.315248324739543</v>
+        <v>0.3162021439539972</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.358982675027998</v>
+        <v>0.359039449490376</v>
       </c>
     </row>
     <row r="20">
@@ -7402,19 +7402,19 @@
         <v>261741</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>233685</v>
+        <v>235899</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>292973</v>
+        <v>292206</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.227672270047082</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2032681240542276</v>
+        <v>0.2051938561509541</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2548395847791191</v>
+        <v>0.2541721194145318</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>171</v>
@@ -7423,19 +7423,19 @@
         <v>171520</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>149170</v>
+        <v>149867</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>195591</v>
+        <v>195653</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2076822844088664</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1806198098112148</v>
+        <v>0.1814640933942303</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.236828274264759</v>
+        <v>0.2369036297678596</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>417</v>
@@ -7444,19 +7444,19 @@
         <v>433261</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>397868</v>
+        <v>401972</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>472456</v>
+        <v>471494</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2193153337600941</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2013998123110844</v>
+        <v>0.2034770857000065</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2391562085389119</v>
+        <v>0.2386691720322236</v>
       </c>
     </row>
     <row r="21">
@@ -7473,19 +7473,19 @@
         <v>287185</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>260225</v>
+        <v>257480</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>319867</v>
+        <v>317236</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2498049518653397</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2263537415207894</v>
+        <v>0.2239657454847076</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2782327428562284</v>
+        <v>0.2759438609342875</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>197</v>
@@ -7494,19 +7494,19 @@
         <v>208495</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>182932</v>
+        <v>183414</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>233373</v>
+        <v>234210</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.252452613533669</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2215010150114527</v>
+        <v>0.2220847087488356</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2825759947875957</v>
+        <v>0.2835898790176605</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>471</v>
@@ -7515,19 +7515,19 @@
         <v>495680</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>455648</v>
+        <v>456788</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>535141</v>
+        <v>536040</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2509118230893704</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2306478588489532</v>
+        <v>0.2312247551349762</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2708867711991195</v>
+        <v>0.2713421321038746</v>
       </c>
     </row>
     <row r="22">
@@ -7544,19 +7544,19 @@
         <v>221718</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>196511</v>
+        <v>196481</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>249362</v>
+        <v>251961</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1928589238465927</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1709325136097128</v>
+        <v>0.1709065536748723</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2169052280988066</v>
+        <v>0.2191656102431215</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>143</v>
@@ -7565,19 +7565,19 @@
         <v>160450</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>138847</v>
+        <v>137840</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>184107</v>
+        <v>184871</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1942783831539122</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1681213758915725</v>
+        <v>0.1669013401962473</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2229228741250775</v>
+        <v>0.2238485063177179</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>360</v>
@@ -7586,19 +7586,19 @@
         <v>382168</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>346605</v>
+        <v>348444</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>417136</v>
+        <v>421424</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1934523375292201</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1754505659725445</v>
+        <v>0.1763812817634901</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2111529422873662</v>
+        <v>0.2133238889077993</v>
       </c>
     </row>
     <row r="23">
@@ -7690,19 +7690,19 @@
         <v>211254</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>189088</v>
+        <v>187761</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>237608</v>
+        <v>236788</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3403448722090984</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3046333530000068</v>
+        <v>0.3024960875088272</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3828021838836145</v>
+        <v>0.3814814614735219</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>194</v>
@@ -7711,19 +7711,19 @@
         <v>191225</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>168613</v>
+        <v>167519</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>214962</v>
+        <v>214951</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2590274752898119</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2283972925375283</v>
+        <v>0.2269155740417391</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2911803565945074</v>
+        <v>0.2911652397191074</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>393</v>
@@ -7732,19 +7732,19 @@
         <v>402480</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>367764</v>
+        <v>368480</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>436033</v>
+        <v>437517</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2961695232618584</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2706234091471582</v>
+        <v>0.2711505438824834</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3208600993440979</v>
+        <v>0.3219524623510394</v>
       </c>
     </row>
     <row r="25">
@@ -7761,19 +7761,19 @@
         <v>143315</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>122519</v>
+        <v>123164</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>166755</v>
+        <v>164875</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.230890788313848</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1973864861607997</v>
+        <v>0.1984251477833382</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.268653598682818</v>
+        <v>0.2656256485134074</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>126</v>
@@ -7782,19 +7782,19 @@
         <v>132900</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>114147</v>
+        <v>112317</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>155060</v>
+        <v>154378</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1800224527512491</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1546196212288702</v>
+        <v>0.1521406921096324</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2100393976113048</v>
+        <v>0.2091150248186694</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>263</v>
@@ -7803,19 +7803,19 @@
         <v>276216</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>248625</v>
+        <v>248086</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>311275</v>
+        <v>305456</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2032567695309602</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1829536712523625</v>
+        <v>0.1825567671886971</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2290551806480098</v>
+        <v>0.2247738817235707</v>
       </c>
     </row>
     <row r="26">
@@ -7832,19 +7832,19 @@
         <v>127656</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>107267</v>
+        <v>107239</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>149858</v>
+        <v>150736</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2056619993273159</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1728141816390178</v>
+        <v>0.1727695535407676</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2414318534898248</v>
+        <v>0.2428453103206087</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>163</v>
@@ -7853,19 +7853,19 @@
         <v>174017</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>151356</v>
+        <v>153250</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>198992</v>
+        <v>198740</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2357177654321166</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2050221808931554</v>
+        <v>0.2075866300878087</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2695475226444232</v>
+        <v>0.269206248742026</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>281</v>
@@ -7874,19 +7874,19 @@
         <v>301673</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>270251</v>
+        <v>268905</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>333312</v>
+        <v>329630</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2219896734272882</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1988676514661061</v>
+        <v>0.1978767018587192</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2452715649958894</v>
+        <v>0.2425625160196822</v>
       </c>
     </row>
     <row r="27">
@@ -7903,19 +7903,19 @@
         <v>138481</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>118118</v>
+        <v>120233</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>157866</v>
+        <v>161379</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2231023401497377</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1902958105735476</v>
+        <v>0.1937033386004367</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2543328422206768</v>
+        <v>0.2599921503562469</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>216</v>
@@ -7924,19 +7924,19 @@
         <v>240101</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>214848</v>
+        <v>214847</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>268619</v>
+        <v>267781</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3252323065268223</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2910258220137809</v>
+        <v>0.2910237156030399</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3638620006720147</v>
+        <v>0.3627274312153624</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>359</v>
@@ -7945,19 +7945,19 @@
         <v>378582</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>343759</v>
+        <v>347476</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>412054</v>
+        <v>413924</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2785840337798932</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.25295917151899</v>
+        <v>0.2556947446143052</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3032150953725125</v>
+        <v>0.304591111588042</v>
       </c>
     </row>
     <row r="28">
@@ -8049,19 +8049,19 @@
         <v>144372</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>125849</v>
+        <v>129068</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>160872</v>
+        <v>162503</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5027854213735877</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.438275425466404</v>
+        <v>0.4494887165151102</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5602452643217152</v>
+        <v>0.565925716163908</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>257</v>
@@ -8070,19 +8070,19 @@
         <v>261325</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>235570</v>
+        <v>232964</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>294500</v>
+        <v>289356</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2415149068122254</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2177119204076766</v>
+        <v>0.2153041046196431</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2721749855153434</v>
+        <v>0.2674205384355469</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>394</v>
@@ -8091,19 +8091,19 @@
         <v>405698</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>371994</v>
+        <v>372266</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>442427</v>
+        <v>439810</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2963090963185139</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2716930551323441</v>
+        <v>0.271891496308781</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.323135145465155</v>
+        <v>0.3212240450940025</v>
       </c>
     </row>
     <row r="30">
@@ -8120,19 +8120,19 @@
         <v>82498</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>66720</v>
+        <v>69495</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>98793</v>
+        <v>99029</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2873029244711582</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2323570679245262</v>
+        <v>0.2420203323758616</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3440518419240727</v>
+        <v>0.3448755951804846</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>221</v>
@@ -8141,19 +8141,19 @@
         <v>226868</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>201239</v>
+        <v>199529</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>253226</v>
+        <v>257188</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2096694417388202</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1859833946393551</v>
+        <v>0.1844031132857947</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2340294709537013</v>
+        <v>0.2376909416789633</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>300</v>
@@ -8162,19 +8162,19 @@
         <v>309365</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>281364</v>
+        <v>278727</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>342229</v>
+        <v>339183</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.225950895357919</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2054997496803616</v>
+        <v>0.2035733689822853</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2499535348689975</v>
+        <v>0.2477286315441284</v>
       </c>
     </row>
     <row r="31">
@@ -8191,19 +8191,19 @@
         <v>53433</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>41632</v>
+        <v>40521</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>68390</v>
+        <v>67849</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1860821673603688</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1449868547299165</v>
+        <v>0.1411175009109405</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2381727581927024</v>
+        <v>0.2362896459778539</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>206</v>
@@ -8212,19 +8212,19 @@
         <v>230810</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>203677</v>
+        <v>205850</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>261117</v>
+        <v>263541</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2133126175110112</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1882364217994706</v>
+        <v>0.1902448860264545</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.241322432023623</v>
+        <v>0.2435624878861141</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>256</v>
@@ -8233,19 +8233,19 @@
         <v>284242</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>255241</v>
+        <v>254076</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>317031</v>
+        <v>321115</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2076017915174971</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1864204738661694</v>
+        <v>0.1855692913486346</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2315494916975811</v>
+        <v>0.2345326624001577</v>
       </c>
     </row>
     <row r="32">
@@ -8262,19 +8262,19 @@
         <v>6843</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2782</v>
+        <v>2767</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14087</v>
+        <v>14296</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02382948679488532</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.009688281742575876</v>
+        <v>0.009637004779152374</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04905784085952875</v>
+        <v>0.04978613942462773</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>308</v>
@@ -8283,19 +8283,19 @@
         <v>363023</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>333438</v>
+        <v>329572</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>396554</v>
+        <v>398034</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3355030339379431</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3081611351973592</v>
+        <v>0.3045880432332988</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3664921967863854</v>
+        <v>0.36786072206015</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>314</v>
@@ -8304,19 +8304,19 @@
         <v>369865</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>334852</v>
+        <v>336518</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>403212</v>
+        <v>405736</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.27013821680607</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2445659327088326</v>
+        <v>0.2457826525070759</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2944935808642004</v>
+        <v>0.2963373174849214</v>
       </c>
     </row>
     <row r="33">
@@ -8408,19 +8408,19 @@
         <v>1213120</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1155143</v>
+        <v>1161999</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1270688</v>
+        <v>1269619</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.358304726195936</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3411807685223055</v>
+        <v>0.3432056813670177</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3753078758996885</v>
+        <v>0.37499212606642</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1043</v>
@@ -8429,19 +8429,19 @@
         <v>1046647</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>992806</v>
+        <v>990567</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1100740</v>
+        <v>1101204</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2963665167595066</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2811209410502928</v>
+        <v>0.2804872067678128</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3116834336013299</v>
+        <v>0.3118149615261104</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2197</v>
@@ -8450,19 +8450,19 @@
         <v>2259767</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2181511</v>
+        <v>2179486</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2332617</v>
+        <v>2336764</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3266825391948116</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3153694604462037</v>
+        <v>0.3150767943404125</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3372140157517219</v>
+        <v>0.3378135779637426</v>
       </c>
     </row>
     <row r="35">
@@ -8479,19 +8479,19 @@
         <v>823766</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>766535</v>
+        <v>776547</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>870729</v>
+        <v>876786</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2433057225904107</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2264021780104442</v>
+        <v>0.2293593990192915</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2571766399867805</v>
+        <v>0.2589658316516307</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>740</v>
@@ -8500,19 +8500,19 @@
         <v>765319</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>718233</v>
+        <v>717523</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>817110</v>
+        <v>814391</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2167062415407078</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2033733773729495</v>
+        <v>0.2031724533373116</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2313713618789693</v>
+        <v>0.2306012945346522</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1517</v>
@@ -8521,19 +8521,19 @@
         <v>1589084</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1519980</v>
+        <v>1520234</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1660863</v>
+        <v>1663375</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2297255146454285</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2197354905830487</v>
+        <v>0.2197721927326959</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2401020896102454</v>
+        <v>0.2404653411267572</v>
       </c>
     </row>
     <row r="36">
@@ -8550,19 +8550,19 @@
         <v>782486</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>733977</v>
+        <v>730986</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>834499</v>
+        <v>829204</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2311135925112854</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2167860762296132</v>
+        <v>0.2159024509642265</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2464760703791282</v>
+        <v>0.2449120216129196</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>743</v>
@@ -8571,19 +8571,19 @@
         <v>799557</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>746586</v>
+        <v>753453</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>850072</v>
+        <v>851677</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2264009167490785</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2114017307968808</v>
+        <v>0.2133464439386776</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2407048525971678</v>
+        <v>0.241159344078069</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1479</v>
@@ -8592,19 +8592,19 @@
         <v>1582043</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1510479</v>
+        <v>1510297</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1655497</v>
+        <v>1645874</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2287075637354435</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2183619474874306</v>
+        <v>0.2183355976464869</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2393264729684841</v>
+        <v>0.2379352932255969</v>
       </c>
     </row>
     <row r="37">
@@ -8621,19 +8621,19 @@
         <v>566350</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>521377</v>
+        <v>521938</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>611984</v>
+        <v>612465</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.167275958702368</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1539928940444112</v>
+        <v>0.1541585225610101</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1807544549905951</v>
+        <v>0.1808965181207152</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>800</v>
@@ -8642,19 +8642,19 @@
         <v>920074</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>867663</v>
+        <v>866987</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>977615</v>
+        <v>970720</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2605263249507071</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2456857772881374</v>
+        <v>0.245494318767888</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.276819549366736</v>
+        <v>0.2748672350506727</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1357</v>
@@ -8663,19 +8663,19 @@
         <v>1486424</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1416007</v>
+        <v>1411931</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1560099</v>
+        <v>1557931</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2148843824243165</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2047046096085265</v>
+        <v>0.2041153584223119</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2255352228306982</v>
+        <v>0.2252218601145214</v>
       </c>
     </row>
     <row r="38">
@@ -9009,19 +9009,19 @@
         <v>144353</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>121508</v>
+        <v>122443</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>165783</v>
+        <v>169559</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2633377959281891</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2216637894200491</v>
+        <v>0.2233682353364593</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3024321040740585</v>
+        <v>0.3093211453206597</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>177</v>
@@ -9030,19 +9030,19 @@
         <v>133434</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>116515</v>
+        <v>116557</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>150811</v>
+        <v>151101</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2740916345198861</v>
+        <v>0.274091634519886</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2393385504270022</v>
+        <v>0.2394249965573712</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3097865935328115</v>
+        <v>0.3103823987537095</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>300</v>
@@ -9051,19 +9051,19 @@
         <v>277786</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>251108</v>
+        <v>251288</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>308688</v>
+        <v>306269</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2683960238532112</v>
+        <v>0.2683960238532111</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2426197120136263</v>
+        <v>0.2427938628920914</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2982531670702461</v>
+        <v>0.2959157339339888</v>
       </c>
     </row>
     <row r="5">
@@ -9080,19 +9080,19 @@
         <v>151503</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>129995</v>
+        <v>131569</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>174067</v>
+        <v>172274</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2763818679384855</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2371460774287028</v>
+        <v>0.2400167503448774</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3175448184815524</v>
+        <v>0.3142736436168456</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>181</v>
@@ -9101,19 +9101,19 @@
         <v>140835</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>124074</v>
+        <v>123084</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>161499</v>
+        <v>159774</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.289294428896946</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2548656843685381</v>
+        <v>0.2528311785434533</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3317425543317694</v>
+        <v>0.3281976362767629</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>335</v>
@@ -9122,19 +9122,19 @@
         <v>292338</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>264607</v>
+        <v>265044</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>321767</v>
+        <v>322296</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2824554830357089</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.25566186746865</v>
+        <v>0.2560843387964122</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3108894458976278</v>
+        <v>0.3114013979498493</v>
       </c>
     </row>
     <row r="6">
@@ -9151,19 +9151,19 @@
         <v>176419</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>153342</v>
+        <v>154666</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>198984</v>
+        <v>199315</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.321836133975957</v>
+        <v>0.3218361339759569</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2797378160244128</v>
+        <v>0.2821515013941546</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3629993342841782</v>
+        <v>0.3636048377118433</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>173</v>
@@ -9172,19 +9172,19 @@
         <v>114014</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>97929</v>
+        <v>99558</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>129956</v>
+        <v>130130</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2342020020568799</v>
+        <v>0.2342020020568798</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2011600313758257</v>
+        <v>0.2045053868820732</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.266947279608622</v>
+        <v>0.2673053060127619</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>357</v>
@@ -9193,19 +9193,19 @@
         <v>290434</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>265226</v>
+        <v>261449</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>319347</v>
+        <v>319541</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2806161166325317</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2562604185452461</v>
+        <v>0.2526111139944114</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3085512261620462</v>
+        <v>0.3087395703737177</v>
       </c>
     </row>
     <row r="7">
@@ -9222,19 +9222,19 @@
         <v>75890</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>61994</v>
+        <v>61150</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>92497</v>
+        <v>92644</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1384442021573686</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1130940541769249</v>
+        <v>0.1115543672605766</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1687389486727408</v>
+        <v>0.1690078371181156</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>153</v>
@@ -9243,19 +9243,19 @@
         <v>98538</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>84189</v>
+        <v>83174</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>113735</v>
+        <v>113286</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2024119345262881</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1729360709742939</v>
+        <v>0.170850560719571</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2336285244217693</v>
+        <v>0.2327060036244299</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>244</v>
@@ -9264,19 +9264,19 @@
         <v>174429</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>153358</v>
+        <v>153970</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>195574</v>
+        <v>198022</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1685323764785482</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1481734512050584</v>
+        <v>0.1487654540566332</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1889623770406256</v>
+        <v>0.1913284663129718</v>
       </c>
     </row>
     <row r="8">
@@ -9368,19 +9368,19 @@
         <v>110851</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>91048</v>
+        <v>90167</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>131474</v>
+        <v>132597</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2298811999343373</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1888156125672915</v>
+        <v>0.186988046699056</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2726494147132541</v>
+        <v>0.2749783879176935</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>143</v>
@@ -9389,19 +9389,19 @@
         <v>116303</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>100739</v>
+        <v>101004</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>134060</v>
+        <v>135032</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2752833726039747</v>
+        <v>0.2752833726039746</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.238443683941294</v>
+        <v>0.2390702343101268</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.317311791162121</v>
+        <v>0.3196138830530612</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>236</v>
@@ -9410,19 +9410,19 @@
         <v>227154</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>202689</v>
+        <v>202267</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>255133</v>
+        <v>254950</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2510837139575255</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2240419724082958</v>
+        <v>0.2235751330490046</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2820099792409631</v>
+        <v>0.2818082026521103</v>
       </c>
     </row>
     <row r="10">
@@ -9439,19 +9439,19 @@
         <v>165619</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>143990</v>
+        <v>145021</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>185658</v>
+        <v>189979</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3434598590412099</v>
+        <v>0.34345985904121</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2986053682854886</v>
+        <v>0.3007439855357665</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.385015683289985</v>
+        <v>0.3939764130871414</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>150</v>
@@ -9460,19 +9460,19 @@
         <v>112019</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96862</v>
+        <v>95404</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>127589</v>
+        <v>127700</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2651431797888381</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2292676166388749</v>
+        <v>0.2258158871671277</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3019967252237583</v>
+        <v>0.3022595812504822</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>308</v>
@@ -9481,19 +9481,19 @@
         <v>277638</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>250724</v>
+        <v>250896</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>304115</v>
+        <v>303159</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3068864883749992</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2771370351523388</v>
+        <v>0.27732739226922</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3361524904747609</v>
+        <v>0.3350959460011625</v>
       </c>
     </row>
     <row r="11">
@@ -9510,19 +9510,19 @@
         <v>122790</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>106153</v>
+        <v>105250</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>143106</v>
+        <v>145024</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2546416066163666</v>
+        <v>0.2546416066163667</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2201400986766961</v>
+        <v>0.2182671326276643</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2967732940443906</v>
+        <v>0.3007498460161732</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>151</v>
@@ -9531,19 +9531,19 @@
         <v>101806</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>87950</v>
+        <v>87173</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>116971</v>
+        <v>117646</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2409686863897556</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2081734234142983</v>
+        <v>0.2063333729122213</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2768634059230757</v>
+        <v>0.2784601458346328</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>284</v>
@@ -9552,19 +9552,19 @@
         <v>224596</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>202562</v>
+        <v>203919</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>252873</v>
+        <v>251387</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2482564434006749</v>
+        <v>0.2482564434006748</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2239013725538005</v>
+        <v>0.2254008622521397</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.279512519622908</v>
+        <v>0.2778697316282654</v>
       </c>
     </row>
     <row r="12">
@@ -9581,19 +9581,19 @@
         <v>82948</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>67600</v>
+        <v>65792</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>99530</v>
+        <v>100511</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1720173344080861</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1401883634263831</v>
+        <v>0.1364382696407517</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2064048424961233</v>
+        <v>0.2084389930262538</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>145</v>
@@ -9602,19 +9602,19 @@
         <v>92357</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>79371</v>
+        <v>79981</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>106422</v>
+        <v>107119</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2186047612174316</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1878655091213733</v>
+        <v>0.1893098215470468</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2518959039837069</v>
+        <v>0.2535452566824956</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>241</v>
@@ -9623,19 +9623,19 @@
         <v>175306</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>154507</v>
+        <v>154180</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>199078</v>
+        <v>195774</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1937733542668004</v>
+        <v>0.1937733542668003</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.17078396621049</v>
+        <v>0.1704226392606695</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.220050089680159</v>
+        <v>0.2163985355664406</v>
       </c>
     </row>
     <row r="13">
@@ -9727,19 +9727,19 @@
         <v>93221</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>76388</v>
+        <v>75955</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>112612</v>
+        <v>114015</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.198905466967752</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1629905166066961</v>
+        <v>0.1620652522840227</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2402812148240455</v>
+        <v>0.2432739784463033</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>53</v>
@@ -9748,19 +9748,19 @@
         <v>37552</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28577</v>
+        <v>29363</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46480</v>
+        <v>47408</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.201406903716904</v>
+        <v>0.2014069037169039</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.153269116596532</v>
+        <v>0.1574847988219765</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2492905374639142</v>
+        <v>0.2542669692026833</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>140</v>
@@ -9769,19 +9769,19 @@
         <v>130773</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>112574</v>
+        <v>110702</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>152591</v>
+        <v>152170</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1996173872090003</v>
+        <v>0.1996173872090004</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1718378025872533</v>
+        <v>0.1689795211953222</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.232920636979756</v>
+        <v>0.2322787077503459</v>
       </c>
     </row>
     <row r="15">
@@ -9798,19 +9798,19 @@
         <v>151943</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>132134</v>
+        <v>129185</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>173766</v>
+        <v>172497</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3242025439195249</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2819359864662314</v>
+        <v>0.2756420595521835</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3707657752709072</v>
+        <v>0.3680570902093419</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>58</v>
@@ -9819,19 +9819,19 @@
         <v>42131</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>33557</v>
+        <v>32913</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>53617</v>
+        <v>52718</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.2259662642023938</v>
+        <v>0.2259662642023937</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.179980698391272</v>
+        <v>0.1765231686391313</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2875686439027658</v>
+        <v>0.2827490672987932</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>204</v>
@@ -9840,19 +9840,19 @@
         <v>194075</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>171097</v>
+        <v>170673</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>217817</v>
+        <v>218723</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2962440532723921</v>
+        <v>0.2962440532723922</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2611699756038956</v>
+        <v>0.2605231340612936</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3324853133514495</v>
+        <v>0.3338685825554901</v>
       </c>
     </row>
     <row r="16">
@@ -9869,19 +9869,19 @@
         <v>108521</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>92173</v>
+        <v>91015</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128155</v>
+        <v>128312</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2315514420026327</v>
+        <v>0.2315514420026326</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1966703231733789</v>
+        <v>0.1942001501088165</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2734451509348535</v>
+        <v>0.2737791763109309</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -9890,19 +9890,19 @@
         <v>33658</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25906</v>
+        <v>25786</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42879</v>
+        <v>43200</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1805238648360764</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1389454633172684</v>
+        <v>0.1382993117424155</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2299782383300079</v>
+        <v>0.2316998039358464</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>175</v>
@@ -9911,19 +9911,19 @@
         <v>142179</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>121460</v>
+        <v>123613</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>163705</v>
+        <v>162921</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2170287621631169</v>
+        <v>0.217028762163117</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1854022314818504</v>
+        <v>0.1886887616689021</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2498862660480243</v>
+        <v>0.2486901008910511</v>
       </c>
     </row>
     <row r="17">
@@ -9940,19 +9940,19 @@
         <v>114983</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>96378</v>
+        <v>97505</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>133238</v>
+        <v>133217</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2453405471100905</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2056416470563453</v>
+        <v>0.2080480441052244</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2842915382377389</v>
+        <v>0.2842459173497462</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>120</v>
@@ -9961,19 +9961,19 @@
         <v>73107</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>61567</v>
+        <v>62168</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>83705</v>
+        <v>85962</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3921029672446259</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3302079549325387</v>
+        <v>0.3334339729582053</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4489442410795084</v>
+        <v>0.4610459760494806</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>252</v>
@@ -9982,19 +9982,19 @@
         <v>188091</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>168456</v>
+        <v>166439</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>209672</v>
+        <v>208155</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2871097973554905</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2571376907870878</v>
+        <v>0.2540602046531428</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3200529973810138</v>
+        <v>0.3177366762657837</v>
       </c>
     </row>
     <row r="18">
@@ -10086,19 +10086,19 @@
         <v>269807</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>238064</v>
+        <v>235514</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>307730</v>
+        <v>303586</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2395556736539174</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2113721840693315</v>
+        <v>0.2091078799214888</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2732266298825958</v>
+        <v>0.269547095479573</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>244</v>
@@ -10107,19 +10107,19 @@
         <v>195913</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>173347</v>
+        <v>175317</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>218793</v>
+        <v>219395</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2281052386374706</v>
+        <v>0.2281052386374707</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.201831777629337</v>
+        <v>0.2041247560447648</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2547449112164765</v>
+        <v>0.255445449484507</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>459</v>
@@ -10128,19 +10128,19 @@
         <v>465720</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>426150</v>
+        <v>425976</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>509359</v>
+        <v>512142</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2346016671172264</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.214669032651666</v>
+        <v>0.214581311939201</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2565843846089426</v>
+        <v>0.2579865879437557</v>
       </c>
     </row>
     <row r="20">
@@ -10157,19 +10157,19 @@
         <v>317381</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>286485</v>
+        <v>284794</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>351555</v>
+        <v>351155</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2817961059486532</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2543639439648415</v>
+        <v>0.2528628071169979</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3121381354005181</v>
+        <v>0.3117833969956385</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>275</v>
@@ -10178,19 +10178,19 @@
         <v>216883</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>193990</v>
+        <v>193529</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>242143</v>
+        <v>240442</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2525212257573736</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2258666551961826</v>
+        <v>0.2253293455143168</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2819318098326214</v>
+        <v>0.279951034807691</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>564</v>
@@ -10199,19 +10199,19 @@
         <v>534264</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>491261</v>
+        <v>493526</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>574978</v>
+        <v>577625</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2691303908365081</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2474676961670989</v>
+        <v>0.2486088690883068</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2896392200229122</v>
+        <v>0.2909728568834794</v>
       </c>
     </row>
     <row r="21">
@@ -10228,19 +10228,19 @@
         <v>243843</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>215682</v>
+        <v>217093</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>273968</v>
+        <v>276322</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.216503274107657</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1914995772645141</v>
+        <v>0.1927520058192069</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2432500260624989</v>
+        <v>0.2453401715156968</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>328</v>
@@ -10249,19 +10249,19 @@
         <v>215816</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>194746</v>
+        <v>195114</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>237966</v>
+        <v>236279</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2512788204629154</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2267467835050083</v>
+        <v>0.2271747176809189</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2770681250609046</v>
+        <v>0.2751039025455109</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>592</v>
@@ -10270,19 +10270,19 @@
         <v>459659</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>426277</v>
+        <v>427926</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>499642</v>
+        <v>495885</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2315488408231136</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2147327541975214</v>
+        <v>0.2155635548620666</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2516897314574104</v>
+        <v>0.2497973366535004</v>
       </c>
     </row>
     <row r="22">
@@ -10299,19 +10299,19 @@
         <v>295249</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>268019</v>
+        <v>263138</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>324734</v>
+        <v>326536</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2621449462897725</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.23796814071685</v>
+        <v>0.2336345033285255</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2883245016892525</v>
+        <v>0.2899239489223797</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>378</v>
@@ -10320,19 +10320,19 @@
         <v>230259</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>208736</v>
+        <v>208210</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>253602</v>
+        <v>250689</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2680947151422403</v>
+        <v>0.2680947151422404</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2430358884284017</v>
+        <v>0.2424225394667561</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2952737613034654</v>
+        <v>0.2918819007482004</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>722</v>
@@ -10341,19 +10341,19 @@
         <v>525507</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>488832</v>
+        <v>489916</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>566036</v>
+        <v>563688</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2647191012231518</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2462444653244526</v>
+        <v>0.2467904254346248</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2851349121129291</v>
+        <v>0.2839520186444984</v>
       </c>
     </row>
     <row r="23">
@@ -10445,19 +10445,19 @@
         <v>124266</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>101641</v>
+        <v>103330</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>150205</v>
+        <v>150285</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2207461491711305</v>
+        <v>0.2207461491711306</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1805546484905216</v>
+        <v>0.1835550891417051</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2668244474705692</v>
+        <v>0.266967435969075</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>178</v>
@@ -10466,19 +10466,19 @@
         <v>132143</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>115054</v>
+        <v>114936</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>153492</v>
+        <v>152227</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1599872608892321</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1392974581799634</v>
+        <v>0.1391544826764667</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1858355851774122</v>
+        <v>0.1843035923844276</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>276</v>
@@ -10487,19 +10487,19 @@
         <v>256408</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>227658</v>
+        <v>226665</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>290092</v>
+        <v>288805</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.184613589604838</v>
+        <v>0.1846135896048381</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1639135979773147</v>
+        <v>0.1631986913436454</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2088656309861383</v>
+        <v>0.2079393888403983</v>
       </c>
     </row>
     <row r="25">
@@ -10516,19 +10516,19 @@
         <v>146853</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>125015</v>
+        <v>125395</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>171228</v>
+        <v>172313</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2608711024981641</v>
+        <v>0.2608711024981642</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2220779166431327</v>
+        <v>0.2227523669698628</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3041702936070012</v>
+        <v>0.3060968174064312</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>255</v>
@@ -10537,19 +10537,19 @@
         <v>188138</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>166591</v>
+        <v>166960</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>209013</v>
+        <v>208765</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2277819386875215</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2016939663129652</v>
+        <v>0.2021414893163986</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2530558144146852</v>
+        <v>0.2527552355459963</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>388</v>
@@ -10558,19 +10558,19 @@
         <v>334992</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>303183</v>
+        <v>306939</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>365969</v>
+        <v>370006</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2411933859336388</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2182913475136165</v>
+        <v>0.2209953948806563</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2634971722278516</v>
+        <v>0.2664033749971649</v>
       </c>
     </row>
     <row r="26">
@@ -10587,19 +10587,19 @@
         <v>145415</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>126570</v>
+        <v>126019</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>169222</v>
+        <v>170877</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2583152453889011</v>
+        <v>0.2583152453889012</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2248400029944669</v>
+        <v>0.2238614409848428</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.300607022858967</v>
+        <v>0.3035458768139901</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>287</v>
@@ -10608,19 +10608,19 @@
         <v>186357</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>167849</v>
+        <v>166115</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>207112</v>
+        <v>207431</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2256253544716867</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.203217945216503</v>
+        <v>0.2011186294238944</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2507533699177767</v>
+        <v>0.2511401862124638</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>431</v>
@@ -10629,19 +10629,19 @@
         <v>331772</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>301556</v>
+        <v>302297</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>364939</v>
+        <v>361696</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2388749714770141</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2171197863928116</v>
+        <v>0.2176534480868442</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2627553587331066</v>
+        <v>0.2604205254367931</v>
       </c>
     </row>
     <row r="27">
@@ -10658,19 +10658,19 @@
         <v>146401</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>127049</v>
+        <v>127432</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>169436</v>
+        <v>168381</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.260067502941804</v>
+        <v>0.2600675029418041</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2256901310873086</v>
+        <v>0.2263705263326434</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3009868319865343</v>
+        <v>0.2991119364096022</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>562</v>
@@ -10679,19 +10679,19 @@
         <v>319319</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>297541</v>
+        <v>297571</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>342795</v>
+        <v>342107</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.3866054459515597</v>
+        <v>0.3866054459515598</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3602374365769374</v>
+        <v>0.3602736502238516</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4150280378913942</v>
+        <v>0.4141946973610955</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>730</v>
@@ -10700,19 +10700,19 @@
         <v>465721</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>434567</v>
+        <v>436073</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>496719</v>
+        <v>496884</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3353180529845091</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3128878805967294</v>
+        <v>0.3139721766999459</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.357637191789311</v>
+        <v>0.3577554854012839</v>
       </c>
     </row>
     <row r="28">
@@ -10804,19 +10804,19 @@
         <v>113920</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>90417</v>
+        <v>89419</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>136246</v>
+        <v>136925</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4802116865697056</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3811378464564727</v>
+        <v>0.3769316944925121</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5743253291726704</v>
+        <v>0.5771862542310096</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>157</v>
@@ -10825,19 +10825,19 @@
         <v>178778</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>152098</v>
+        <v>151105</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>207068</v>
+        <v>208107</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2140577169072869</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1821134066535919</v>
+        <v>0.1809238190589573</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2479307513052052</v>
+        <v>0.2491744576702357</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>205</v>
@@ -10846,19 +10846,19 @@
         <v>292697</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>258387</v>
+        <v>256623</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>335764</v>
+        <v>331313</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2729335188665374</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2409404914057509</v>
+        <v>0.2392954109253104</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3130928221962045</v>
+        <v>0.3089418557406862</v>
       </c>
     </row>
     <row r="30">
@@ -10875,19 +10875,19 @@
         <v>75708</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>56260</v>
+        <v>54994</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>100005</v>
+        <v>102230</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3191364069989438</v>
+        <v>0.3191364069989439</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2371567831614698</v>
+        <v>0.2318200773785752</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4215579362922554</v>
+        <v>0.4309359201062056</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>223</v>
@@ -10896,19 +10896,19 @@
         <v>192622</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>168360</v>
+        <v>169332</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>217369</v>
+        <v>219804</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2306342993770379</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2015843276077793</v>
+        <v>0.2027484087867714</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2602652976079979</v>
+        <v>0.2631806325839291</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>258</v>
@@ -10917,19 +10917,19 @@
         <v>268330</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>233958</v>
+        <v>236933</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>302223</v>
+        <v>301395</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.250211811476266</v>
+        <v>0.2502118114762661</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2181609258457009</v>
+        <v>0.2209348906104056</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2818160207292976</v>
+        <v>0.2810444199860329</v>
       </c>
     </row>
     <row r="31">
@@ -10946,19 +10946,19 @@
         <v>37563</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>22044</v>
+        <v>21818</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>58736</v>
+        <v>57120</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1583427528995393</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09292312106278747</v>
+        <v>0.09196878559636737</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2475944839847998</v>
+        <v>0.2407804262246563</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>255</v>
@@ -10967,19 +10967,19 @@
         <v>169484</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>149780</v>
+        <v>150591</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>193213</v>
+        <v>194234</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2029301807634393</v>
+        <v>0.2029301807634392</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.179338103743639</v>
+        <v>0.1803089656194178</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2313422883398024</v>
+        <v>0.2325637252680345</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>272</v>
@@ -10988,19 +10988,19 @@
         <v>207047</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>182565</v>
+        <v>177681</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>239551</v>
+        <v>233614</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1930670155582876</v>
+        <v>0.1930670155582877</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1702380154366096</v>
+        <v>0.1656837778851493</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2233763378106469</v>
+        <v>0.2178395290437337</v>
       </c>
     </row>
     <row r="32">
@@ -11017,19 +11017,19 @@
         <v>10037</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5233</v>
+        <v>5069</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>17965</v>
+        <v>17543</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.04230915353181123</v>
+        <v>0.04230915353181122</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02205737064119428</v>
+        <v>0.02136706930851411</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07573072097319558</v>
+        <v>0.07395083955851697</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>509</v>
@@ -11038,19 +11038,19 @@
         <v>294300</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>268679</v>
+        <v>270197</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>318132</v>
+        <v>320755</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.352377802952236</v>
+        <v>0.3523778029522361</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3217000022012332</v>
+        <v>0.323517594315865</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3809129216730225</v>
+        <v>0.38405251673441</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>521</v>
@@ -11059,19 +11059,19 @@
         <v>304337</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>278164</v>
+        <v>278179</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>333911</v>
+        <v>332866</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.283787654098909</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2593816102904313</v>
+        <v>0.2593956623665597</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3113648990266206</v>
+        <v>0.3103904739338734</v>
       </c>
     </row>
     <row r="33">
@@ -11163,19 +11163,19 @@
         <v>856416</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>793181</v>
+        <v>800608</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>915416</v>
+        <v>923033</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2500130868104173</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2315530265051483</v>
+        <v>0.233720990166199</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2672369669641703</v>
+        <v>0.2694607409222828</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>952</v>
@@ -11184,19 +11184,19 @@
         <v>794122</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>751925</v>
+        <v>743514</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>853482</v>
+        <v>840305</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2196275397113997</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2079570548245198</v>
+        <v>0.2056310368054954</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2360445058202977</v>
+        <v>0.2324001686203259</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1616</v>
@@ -11205,19 +11205,19 @@
         <v>1650538</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1573183</v>
+        <v>1568898</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1729142</v>
+        <v>1724506</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2344097384522962</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2234237371822003</v>
+        <v>0.2228151517267395</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2455730670995447</v>
+        <v>0.2449146370312377</v>
       </c>
     </row>
     <row r="35">
@@ -11234,19 +11234,19 @@
         <v>1009008</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>951987</v>
+        <v>950707</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1068894</v>
+        <v>1065790</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2945593032406793</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2779130742290861</v>
+        <v>0.2775395283688353</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3120417674070591</v>
+        <v>0.3111356887279208</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1142</v>
@@ -11255,19 +11255,19 @@
         <v>892629</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>846392</v>
+        <v>844936</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>938403</v>
+        <v>935734</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.246871039687041</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2340835458175909</v>
+        <v>0.2336807980413338</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2595306594650517</v>
+        <v>0.2587926160970107</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2057</v>
@@ -11276,19 +11276,19 @@
         <v>1901637</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1827782</v>
+        <v>1822007</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1982460</v>
+        <v>1978852</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2700707993346441</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.259581870460425</v>
+        <v>0.2587617574757389</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2815493144793075</v>
+        <v>0.2810369593097349</v>
       </c>
     </row>
     <row r="36">
@@ -11305,19 +11305,19 @@
         <v>834552</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>777746</v>
+        <v>777903</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>890700</v>
+        <v>885574</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2436302928176472</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2270471252183215</v>
+        <v>0.2270928382272211</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2600216230352755</v>
+        <v>0.2585252595689247</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1250</v>
@@ -11326,19 +11326,19 @@
         <v>821136</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>777804</v>
+        <v>779623</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>868179</v>
+        <v>862256</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.2270985887898761</v>
+        <v>0.2270985887898762</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2151142832741879</v>
+        <v>0.2156175987271402</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2401091696642557</v>
+        <v>0.2384710159000083</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2111</v>
@@ -11347,19 +11347,19 @@
         <v>1655688</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1585197</v>
+        <v>1589497</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1722582</v>
+        <v>1732323</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.2351410615374573</v>
+        <v>0.2351410615374572</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2251299699387461</v>
+        <v>0.2257406145295489</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2446413609865767</v>
+        <v>0.2460247705217485</v>
       </c>
     </row>
     <row r="37">
@@ -11376,19 +11376,19 @@
         <v>725508</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>679396</v>
+        <v>678991</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>772239</v>
+        <v>769559</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.2117973171312562</v>
+        <v>0.2117973171312563</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1983356998225108</v>
+        <v>0.1982175912094122</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2254393670713504</v>
+        <v>0.2246571267618591</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1867</v>
@@ -11397,19 +11397,19 @@
         <v>1107882</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1062188</v>
+        <v>1066723</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1150097</v>
+        <v>1154863</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3064028318116833</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.293765416133074</v>
+        <v>0.2950195538902861</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3180780114935913</v>
+        <v>0.319396116391481</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2710</v>
@@ -11418,19 +11418,19 @@
         <v>1833390</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1762231</v>
+        <v>1763396</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1897929</v>
+        <v>1900116</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.2603784006756025</v>
+        <v>0.2603784006756024</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2502723121148979</v>
+        <v>0.2504378572668332</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2695441747480507</v>
+        <v>0.2698547520821665</v>
       </c>
     </row>
     <row r="38">
